--- a/Template_Database.xlsx
+++ b/Template_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naiborab\Desktop\BootStapWithElectron\Door-Prize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A0748-228E-4FE6-AB42-D6D7C1FFBED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01FF1F3-C821-4B33-95A2-CB53E8E7D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FC90F8DD-72DA-4ADA-B9BF-1913B5EAB365}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>I00006</t>
+  </si>
+  <si>
+    <t>ISSELECTED</t>
+  </si>
+  <si>
+    <t>DOORPRICENAME</t>
   </si>
 </sst>
 </file>
@@ -167,12 +173,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CB8157CD-4F55-45B7-86F4-ADF97B019DBB}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F172052A-18DD-4E09-BE3D-DAB1A7E38E89}" name="KPK"/>
     <tableColumn id="3" xr3:uid="{1A6C7B40-9FBA-4D33-8D6B-D8DDF4A8411A}" name="Telephone Number"/>
+    <tableColumn id="4" xr3:uid="{328D40C1-17F2-42BC-90A4-A6A73F3C82E7}" name="ISSELECTED"/>
+    <tableColumn id="5" xr3:uid="{7454C194-5B04-46CB-AB43-448BAFF1AC26}" name="DOORPRICENAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89FCC88-3349-4F8B-9036-B44E215692A4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +516,7 @@
     <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +526,14 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -530,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -552,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -563,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -574,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -585,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -596,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -607,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -618,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>

--- a/Template_Database.xlsx
+++ b/Template_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naiborab\Desktop\BootStapWithElectron\Door-Prize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01FF1F3-C821-4B33-95A2-CB53E8E7D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD768B-6C06-4525-AF20-B241DBEB21F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FC90F8DD-72DA-4ADA-B9BF-1913B5EAB365}"/>
   </bookViews>
@@ -36,78 +36,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Erlenni</t>
+  </si>
+  <si>
+    <t>KPK</t>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+  </si>
+  <si>
+    <t>I00212</t>
+  </si>
+  <si>
+    <t>I00213</t>
+  </si>
+  <si>
+    <t>Hakim Adni</t>
+  </si>
+  <si>
+    <t>I00214</t>
+  </si>
+  <si>
+    <t>Tissa Shakira</t>
+  </si>
+  <si>
+    <t>I00215</t>
+  </si>
+  <si>
+    <t>Syfa</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Kayana</t>
+  </si>
+  <si>
+    <t>Manusia Buruk</t>
+  </si>
+  <si>
+    <t>ISSELECTED</t>
+  </si>
+  <si>
+    <t>Abraham Naibrohu</t>
+  </si>
+  <si>
+    <t>Samuel Dofransrael</t>
+  </si>
+  <si>
+    <t>Manusa Keren</t>
+  </si>
+  <si>
+    <t>Ikan Laut</t>
+  </si>
+  <si>
+    <t>Ikat Air Tawar</t>
+  </si>
+  <si>
+    <t>Kuda Terbang</t>
+  </si>
+  <si>
+    <t>Kuda Tanduk</t>
+  </si>
+  <si>
+    <t>Manusa Biasa</t>
+  </si>
+  <si>
+    <t>Bukan Orang</t>
+  </si>
+  <si>
+    <t>Hanya Orang</t>
+  </si>
+  <si>
+    <t>Orang Utan</t>
+  </si>
+  <si>
+    <t>I00216</t>
+  </si>
+  <si>
+    <t>I00217</t>
+  </si>
+  <si>
+    <t>I00218</t>
+  </si>
+  <si>
+    <t>I00219</t>
+  </si>
+  <si>
+    <t>I00220</t>
+  </si>
+  <si>
+    <t>I00221</t>
+  </si>
+  <si>
+    <t>I00222</t>
+  </si>
+  <si>
+    <t>I00223</t>
+  </si>
+  <si>
+    <t>I00224</t>
+  </si>
+  <si>
+    <t>I00225</t>
+  </si>
+  <si>
+    <t>I00226</t>
+  </si>
+  <si>
+    <t>I00227</t>
+  </si>
+  <si>
+    <t>I00228</t>
+  </si>
+  <si>
+    <t>I00229</t>
+  </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Erlenni</t>
-  </si>
-  <si>
-    <t>KPK</t>
-  </si>
-  <si>
-    <t>Telephone Number</t>
-  </si>
-  <si>
-    <t>Abraham Naiborhu</t>
-  </si>
-  <si>
-    <t>I00212</t>
-  </si>
-  <si>
-    <t>I00213</t>
-  </si>
-  <si>
-    <t>Hakim Adni</t>
-  </si>
-  <si>
-    <t>I00214</t>
-  </si>
-  <si>
-    <t>Tissa Shakira</t>
-  </si>
-  <si>
-    <t>I00215</t>
-  </si>
-  <si>
-    <t>Syfa</t>
-  </si>
-  <si>
-    <t>I00001</t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>I00002</t>
-  </si>
-  <si>
-    <t>I00003</t>
-  </si>
-  <si>
-    <t>Kayana</t>
-  </si>
-  <si>
-    <t>Samuel Jofransrael</t>
-  </si>
-  <si>
-    <t>I00004</t>
-  </si>
-  <si>
-    <t>Manusia Keren</t>
-  </si>
-  <si>
-    <t>I00005</t>
-  </si>
-  <si>
-    <t>Manusia Buruk</t>
-  </si>
-  <si>
-    <t>I00006</t>
-  </si>
-  <si>
-    <t>ISSELECTED</t>
   </si>
   <si>
     <t>DOORPRICENAME</t>
@@ -152,9 +200,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,20 +217,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{D0A149B0-AECA-4965-8CA6-1D96444E3A62}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CB8157CD-4F55-45B7-86F4-ADF97B019DBB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F172052A-18DD-4E09-BE3D-DAB1A7E38E89}" name="KPK"/>
-    <tableColumn id="3" xr3:uid="{1A6C7B40-9FBA-4D33-8D6B-D8DDF4A8411A}" name="Telephone Number"/>
-    <tableColumn id="4" xr3:uid="{328D40C1-17F2-42BC-90A4-A6A73F3C82E7}" name="ISSELECTED"/>
-    <tableColumn id="5" xr3:uid="{7454C194-5B04-46CB-AB43-448BAFF1AC26}" name="DOORPRICENAME"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,53 +536,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89FCC88-3349-4F8B-9036-B44E215692A4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -557,10 +592,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -568,10 +603,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -579,10 +614,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -590,10 +625,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -601,10 +636,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -612,10 +647,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -623,10 +658,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -634,20 +669,105 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>